--- a/Design/DataTable/Const.xlsx
+++ b/Design/DataTable/Const.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA452F-7845-4A75-90E3-2C9C12BA5F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1261E0-2922-480F-B492-281457CCDC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="!Const" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SponDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFF055-8921-4CB3-91F1-279CE5A55C45}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,6 +513,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/DataTable/Const.xlsx
+++ b/Design/DataTable/Const.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1261E0-2922-480F-B492-281457CCDC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4DB79F-916A-42CF-85B5-E7FEAA7E990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="!Const" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>float32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageStartDaliyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 시작 후 몬스터 스폰까지 걸리는 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,13 +142,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -147,6 +170,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,15 +509,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFF055-8921-4CB3-91F1-279CE5A55C45}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +532,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -513,15 +547,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
